--- a/Codes/MATLAB/POLYFEM/outputs/Diffusion_MMS/simple_convergence.xlsx
+++ b/Codes/MATLAB/POLYFEM/outputs/Diffusion_MMS/simple_convergence.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhackemack\Documents\GitHub\POLYFEM\Codes\MATLAB\POLYFEM\outputs\Diffusion_MMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhackemack\Documents\GitHub\POLYFEM2\Codes\MATLAB\POLYFEM\outputs\Diffusion_MMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13365" windowHeight="12180"/>
   </bookViews>
   <sheets>
-    <sheet name="Gauss_2D - DFEM" sheetId="1" r:id="rId1"/>
+    <sheet name="Gauss_2D - DFEM Cartesian" sheetId="1" r:id="rId1"/>
     <sheet name="Gauss_2D - CFEM" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t>n</t>
   </si>
@@ -34,18 +34,6 @@
   </si>
   <si>
     <t>Uniform</t>
-  </si>
-  <si>
-    <t>tol=0.3</t>
-  </si>
-  <si>
-    <t>tol=0.5</t>
-  </si>
-  <si>
-    <t>Cartesian</t>
-  </si>
-  <si>
-    <t>Triangle</t>
   </si>
   <si>
     <t>err - PWLD</t>
@@ -89,14 +77,36 @@
   <si>
     <t>2nd Order</t>
   </si>
+  <si>
+    <t>AMR</t>
+  </si>
+  <si>
+    <t>err - Lagrange</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>Quadratic</t>
+  </si>
+  <si>
+    <t>AMR, 2-Irr, rtol=0.5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -123,11 +133,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -147,16 +154,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -177,6 +196,1146 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gauss_2D - DFEM Cartesian'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1st slope</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gauss_2D - DFEM Cartesian'!$A$4:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gauss_2D - DFEM Cartesian'!$B$4:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.390625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.765625E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.44140625E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.103515625E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.52587890625E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>4.5787545787545788E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5625E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gauss_2D - DFEM Cartesian'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2nd slope</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gauss_2D - DFEM Cartesian'!$A$4:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gauss_2D - DFEM Cartesian'!$C$4:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.8828125000000042E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1035156250000052E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6293945312500033E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.536743164062519E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1920928955078125E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9595260646104043E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9062499999999997E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Linear Err - PWLD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gauss_2D - DFEM Cartesian'!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gauss_2D - DFEM Cartesian'!$D$4:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.17340219285008501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3465407134880895E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4749608450057402E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5686370837038195E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4610895828745998E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0503959327302703E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Linear Err - ME</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gauss_2D - DFEM Cartesian'!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gauss_2D - DFEM Cartesian'!$E$4:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.17304359047503901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0014122897273101E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3136539225116002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0378097107052299E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3181127808556698E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Quadratic Err - Lagrange</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gauss_2D - DFEM Cartesian'!$F$4:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9216</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gauss_2D - DFEM Cartesian'!$G$4:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.8370124816416498E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1540271868120098E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.28205871046168E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0754494063251402E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>5.0707939545596299E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Quadratic Err - ME</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gauss_2D - DFEM Cartesian'!$H$4:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gauss_2D - DFEM Cartesian'!$I$4:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.10201159923580699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.73499564606728E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9730046126915E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.68661962385973E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>4.6512471731572002E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>AMR, PWLD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gauss_2D - DFEM Cartesian'!$J$4:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1854</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1862</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4390</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5778</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11374</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11530</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11574</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19942</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gauss_2D - DFEM Cartesian'!$K$4:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.17340219285008501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3207053208683204E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7931605301330197E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0189440944078998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1067620930666201E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9582317758883002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2930334238552798E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.65196818253172E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1332341870362202E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.51300037608292E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3098388114834299E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1940333888630799E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.6913406473935704E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>AMR, Linear Err - ME</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gauss_2D - DFEM Cartesian'!$L$5:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2316</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2348</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2612</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3796</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gauss_2D - DFEM Cartesian'!$M$5:$M$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.17304359047503901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0438425348523796E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1877722817999196E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0045758195052803E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5654035129574402E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.94254710843663E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.64527746853481E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.53818133745814E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4283874068186301E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3932603496210601E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0970897467055001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.01574790732836E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>AMR, Quadratic Err - ME</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gauss_2D - DFEM Cartesian'!$N$5:$N$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4040</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5516</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6276</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8780</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11060</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12332</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13724</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gauss_2D - DFEM Cartesian'!$O$5:$O$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.10201159923580699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7331390041337399E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7364464640496704E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1132809216003703E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4831347766412199E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4672014466769503E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9115261268709901E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1678417778431499E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.66646904084826E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.8090755290846803E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.7840185207697498E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.6517881829456704E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0848753836597802E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5665597999237599E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4083247650634801E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="406214800"/>
+        <c:axId val="406212560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="406214800"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="100000"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406212560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="406212560"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1.0000000000000004E-5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406214800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -972,10 +2131,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Gauss_2D - CFEM'!$N$5:$N$29</c:f>
+              <c:f>'Gauss_2D - CFEM'!$N$5:$N$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>65</c:v>
                 </c:pt>
@@ -1038,28 +2197,16 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>11513</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>12936</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>13653</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>14330</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>15030</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Gauss_2D - CFEM'!$O$5:$O$29</c:f>
+              <c:f>'Gauss_2D - CFEM'!$O$5:$O$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.10496770711016599</c:v>
                 </c:pt>
@@ -1122,18 +2269,6 @@
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
                   <c:v>3.8758689535402298E-5</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>3.64914707300563E-5</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>3.6277454081418298E-5</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>3.6337363165123802E-5</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>3.6151702730582201E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1332,11 +2467,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="453972960"/>
-        <c:axId val="453973520"/>
+        <c:axId val="491497440"/>
+        <c:axId val="491498000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="453972960"/>
+        <c:axId val="491497440"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1395,12 +2530,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453973520"/>
+        <c:crossAx val="491498000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="453973520"/>
+        <c:axId val="491498000"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1458,7 +2593,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453972960"/>
+        <c:crossAx val="491497440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1579,6 +2714,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2095,7 +3270,558 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190498</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2395,230 +4121,626 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="9.140625" style="1"/>
-    <col min="10" max="10" width="8.85546875" style="1" customWidth="1"/>
-    <col min="11" max="15" width="9.140625" style="1"/>
+    <col min="1" max="15" width="14.28515625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="J1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
+    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B2" s="11"/>
-      <c r="C2" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="C2" s="11"/>
       <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
       <c r="J2" s="11" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M2" s="11"/>
-      <c r="N2" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="N2" s="11"/>
       <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="L3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="9">
         <v>64</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
+        <f t="shared" ref="B4" si="0">1/A4*25</f>
+        <v>0.390625</v>
+      </c>
+      <c r="C4">
+        <f>(A4)^(-3/2)*25</f>
+        <v>4.8828125000000042E-2</v>
+      </c>
+      <c r="D4" s="9">
         <v>0.17340219285008501</v>
       </c>
-      <c r="J4" s="1">
-        <v>54</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.25453472619709799</v>
+      <c r="E4" s="9">
+        <v>0.17304359047503901</v>
+      </c>
+      <c r="F4" s="9">
+        <v>144</v>
+      </c>
+      <c r="G4" s="9">
+        <v>8.8370124816416498E-2</v>
+      </c>
+      <c r="H4" s="15">
+        <v>128</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.10201159923580699</v>
+      </c>
+      <c r="J4" s="9">
+        <v>64</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0.17340219285008501</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="9">
         <v>256</v>
       </c>
-      <c r="B5" s="1">
-        <v>7.3465407134881006E-2</v>
-      </c>
-      <c r="J5" s="1">
-        <v>216</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.19068853806424499</v>
+      <c r="B5">
+        <f t="shared" ref="B5:B10" si="1">1/A5*25</f>
+        <v>9.765625E-2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C10" si="2">(A5)^(-3/2)*25</f>
+        <v>6.1035156250000052E-3</v>
+      </c>
+      <c r="D5" s="9">
+        <v>7.3465407134880895E-2</v>
+      </c>
+      <c r="E5" s="9">
+        <v>7.0014122897273101E-2</v>
+      </c>
+      <c r="F5" s="9">
+        <v>576</v>
+      </c>
+      <c r="G5" s="9">
+        <v>3.1540271868120098E-2</v>
+      </c>
+      <c r="H5" s="15">
+        <v>512</v>
+      </c>
+      <c r="I5" s="9">
+        <v>2.73499564606728E-2</v>
+      </c>
+      <c r="J5" s="9">
+        <v>116</v>
+      </c>
+      <c r="K5" s="9">
+        <v>7.3207053208683204E-2</v>
+      </c>
+      <c r="L5" s="9">
+        <v>64</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0.17304359047503901</v>
+      </c>
+      <c r="N5" s="9">
+        <v>128</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0.10201159923580699</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="9">
         <v>1024</v>
       </c>
-      <c r="B6" s="1">
-        <v>3.4749608450057E-2</v>
-      </c>
-      <c r="J6" s="1">
-        <v>864</v>
-      </c>
-      <c r="K6" s="1">
-        <v>6.2185849513353E-2</v>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>2.44140625E-2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>7.6293945312500033E-4</v>
+      </c>
+      <c r="D6" s="9">
+        <v>3.4749608450057402E-2</v>
+      </c>
+      <c r="E6" s="9">
+        <v>3.3136539225116002E-2</v>
+      </c>
+      <c r="F6" s="9">
+        <v>2304</v>
+      </c>
+      <c r="G6" s="9">
+        <v>3.28205871046168E-3</v>
+      </c>
+      <c r="H6" s="15">
+        <v>2048</v>
+      </c>
+      <c r="I6" s="9">
+        <v>2.9730046126915E-3</v>
+      </c>
+      <c r="J6" s="9">
+        <v>224</v>
+      </c>
+      <c r="K6" s="9">
+        <v>3.7931605301330197E-2</v>
+      </c>
+      <c r="L6" s="9">
+        <v>106</v>
+      </c>
+      <c r="M6" s="9">
+        <v>9.0438425348523796E-2</v>
+      </c>
+      <c r="N6" s="9">
+        <v>232</v>
+      </c>
+      <c r="O6" s="9">
+        <v>2.7331390041337399E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="9">
         <v>4096</v>
       </c>
-      <c r="B7" s="2">
-        <v>9.568637083704E-3</v>
-      </c>
-      <c r="J7" s="1">
-        <v>3456</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1.9902695757359999E-2</v>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>6.103515625E-3</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>9.536743164062519E-5</v>
+      </c>
+      <c r="D7" s="9">
+        <v>9.5686370837038195E-3</v>
+      </c>
+      <c r="E7" s="9">
+        <v>9.0378097107052299E-3</v>
+      </c>
+      <c r="F7" s="9">
+        <v>9216</v>
+      </c>
+      <c r="G7" s="9">
+        <v>4.0754494063251402E-4</v>
+      </c>
+      <c r="H7" s="15">
+        <v>8192</v>
+      </c>
+      <c r="I7" s="9">
+        <v>3.68661962385973E-4</v>
+      </c>
+      <c r="J7" s="9">
+        <v>460</v>
+      </c>
+      <c r="K7" s="9">
+        <v>2.0189440944078998E-2</v>
+      </c>
+      <c r="L7" s="9">
+        <v>160</v>
+      </c>
+      <c r="M7" s="9">
+        <v>8.1877722817999196E-2</v>
+      </c>
+      <c r="N7" s="9">
+        <v>448</v>
+      </c>
+      <c r="O7" s="9">
+        <v>8.7364464640496704E-3</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="9">
         <v>16384</v>
       </c>
-      <c r="B8" s="1">
-        <v>2.4610895828839998E-3</v>
-      </c>
-      <c r="J8" s="1">
-        <v>13824</v>
-      </c>
-      <c r="K8" s="1">
-        <v>5.3983099467869999E-3</v>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>1.52587890625E-3</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>1.1920928955078125E-5</v>
+      </c>
+      <c r="D8" s="9">
+        <v>2.4610895828745998E-3</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2.3181127808556698E-3</v>
+      </c>
+      <c r="F8" s="9">
+        <v>36864</v>
+      </c>
+      <c r="G8" s="14">
+        <v>5.0707939545596299E-5</v>
+      </c>
+      <c r="H8" s="15">
+        <v>32768</v>
+      </c>
+      <c r="I8" s="14">
+        <v>4.6512471731572002E-5</v>
+      </c>
+      <c r="J8" s="9">
+        <v>1160</v>
+      </c>
+      <c r="K8" s="9">
+        <v>1.1067620930666201E-2</v>
+      </c>
+      <c r="L8" s="9">
+        <v>352</v>
+      </c>
+      <c r="M8" s="9">
+        <v>5.0045758195052803E-2</v>
+      </c>
+      <c r="N8" s="9">
+        <v>592</v>
+      </c>
+      <c r="O8" s="9">
+        <v>7.1132809216003703E-3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>65536</v>
-      </c>
-      <c r="B9" s="2">
-        <v>6.1987806685886602E-4</v>
-      </c>
-      <c r="J9" s="1">
-        <v>55293</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1.3810023971090001E-3</v>
+      <c r="A9" s="9">
+        <v>54600</v>
+      </c>
+      <c r="B9" s="14">
+        <f t="shared" si="1"/>
+        <v>4.5787545787545788E-4</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" si="2"/>
+        <v>1.9595260646104043E-6</v>
+      </c>
+      <c r="D9" s="9">
+        <v>7.0503959327302703E-4</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="J9" s="9">
+        <v>1854</v>
+      </c>
+      <c r="K9" s="9">
+        <v>4.9582317758883002E-3</v>
+      </c>
+      <c r="L9" s="9">
+        <v>600</v>
+      </c>
+      <c r="M9" s="9">
+        <v>4.5654035129574402E-2</v>
+      </c>
+      <c r="N9" s="9">
+        <v>820</v>
+      </c>
+      <c r="O9" s="9">
+        <v>7.4831347766412199E-3</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J10" s="1">
-        <v>86400</v>
-      </c>
-      <c r="K10" s="2">
-        <v>8.8636414279385904E-4</v>
+      <c r="A10" s="9">
+        <v>160000</v>
+      </c>
+      <c r="B10" s="9">
+        <f t="shared" si="1"/>
+        <v>1.5625E-4</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" si="2"/>
+        <v>3.9062499999999997E-7</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="J10" s="9">
+        <v>1862</v>
+      </c>
+      <c r="K10" s="9">
+        <v>4.2930334238552798E-3</v>
+      </c>
+      <c r="L10" s="9">
+        <v>1196</v>
+      </c>
+      <c r="M10" s="9">
+        <v>2.94254710843663E-2</v>
+      </c>
+      <c r="N10" s="9">
+        <v>1320</v>
+      </c>
+      <c r="O10" s="9">
+        <v>4.4672014466769503E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J11" s="9">
+        <v>4390</v>
+      </c>
+      <c r="K11" s="9">
+        <v>2.65196818253172E-3</v>
+      </c>
+      <c r="L11" s="9">
+        <v>2192</v>
+      </c>
+      <c r="M11" s="9">
+        <v>2.64527746853481E-2</v>
+      </c>
+      <c r="N11" s="9">
+        <v>2096</v>
+      </c>
+      <c r="O11" s="9">
+        <v>2.9115261268709901E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J12" s="9">
+        <v>5778</v>
+      </c>
+      <c r="K12" s="9">
+        <v>2.1332341870362202E-3</v>
+      </c>
+      <c r="L12" s="9">
+        <v>2316</v>
+      </c>
+      <c r="M12" s="9">
+        <v>2.53818133745814E-2</v>
+      </c>
+      <c r="N12" s="9">
+        <v>3104</v>
+      </c>
+      <c r="O12" s="9">
+        <v>2.1678417778431499E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J13" s="9">
+        <v>11374</v>
+      </c>
+      <c r="K13" s="9">
+        <v>1.51300037608292E-3</v>
+      </c>
+      <c r="L13" s="9">
+        <v>2348</v>
+      </c>
+      <c r="M13" s="9">
+        <v>2.4283874068186301E-2</v>
+      </c>
+      <c r="N13" s="9">
+        <v>4040</v>
+      </c>
+      <c r="O13" s="9">
+        <v>1.66646904084826E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J14" s="9">
+        <v>11530</v>
+      </c>
+      <c r="K14" s="9">
+        <v>1.3098388114834299E-3</v>
+      </c>
+      <c r="L14" s="9">
+        <v>2612</v>
+      </c>
+      <c r="M14" s="9">
+        <v>2.3932603496210601E-2</v>
+      </c>
+      <c r="N14" s="9">
+        <v>5516</v>
+      </c>
+      <c r="O14" s="9">
+        <v>8.8090755290846803E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J15" s="9">
+        <v>11574</v>
+      </c>
+      <c r="K15" s="9">
+        <v>1.1940333888630799E-3</v>
+      </c>
+      <c r="L15" s="9">
+        <v>3796</v>
+      </c>
+      <c r="M15" s="9">
+        <v>2.0970897467055001E-2</v>
+      </c>
+      <c r="N15" s="9">
+        <v>6276</v>
+      </c>
+      <c r="O15" s="9">
+        <v>6.7840185207697498E-4</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F16" s="2"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="J16" s="9">
+        <v>19942</v>
+      </c>
+      <c r="K16" s="9">
+        <v>6.6913406473935704E-4</v>
+      </c>
+      <c r="L16" s="9">
+        <v>4896</v>
+      </c>
+      <c r="M16" s="9">
+        <v>2.01574790732836E-2</v>
+      </c>
+      <c r="N16" s="9">
+        <v>8780</v>
+      </c>
+      <c r="O16" s="9">
+        <v>5.6517881829456704E-4</v>
+      </c>
     </row>
     <row r="17" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F17" s="2"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="L17" s="9">
+        <v>5020</v>
+      </c>
+      <c r="M17" s="9">
+        <v>1.96366527181213E-2</v>
+      </c>
+      <c r="N17" s="9">
+        <v>11060</v>
+      </c>
+      <c r="O17" s="9">
+        <v>3.0848753836597802E-4</v>
+      </c>
     </row>
     <row r="18" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F18" s="2"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="L18" s="9">
+        <v>5360</v>
+      </c>
+      <c r="M18" s="9">
+        <v>1.9604084052973401E-2</v>
+      </c>
+      <c r="N18" s="9">
+        <v>12332</v>
+      </c>
+      <c r="O18" s="9">
+        <v>2.5665597999237599E-4</v>
+      </c>
     </row>
     <row r="19" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F19" s="2"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="L19" s="9">
+        <v>5452</v>
+      </c>
+      <c r="M19" s="9">
+        <v>1.9397972832493601E-2</v>
+      </c>
+      <c r="N19" s="9">
+        <v>13724</v>
+      </c>
+      <c r="O19" s="9">
+        <v>2.4083247650634801E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="L20" s="9">
+        <v>5496</v>
+      </c>
+      <c r="M20" s="9">
+        <v>1.94886112207301E-2</v>
+      </c>
     </row>
     <row r="22" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="O22" s="2"/>
+      <c r="O22" s="14"/>
     </row>
     <row r="23" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="O23" s="2"/>
+      <c r="O23" s="14"/>
     </row>
     <row r="24" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="O24" s="2"/>
+      <c r="O24" s="14"/>
     </row>
     <row r="25" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="O25" s="2"/>
+      <c r="O25" s="14"/>
     </row>
     <row r="26" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="O26" s="2"/>
+      <c r="O26" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="L2:O2"/>
     <mergeCell ref="J1:O1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2627,13 +4749,13 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="A5" sqref="A5:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="8" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="7" customWidth="1"/>
     <col min="8" max="11" width="13.140625" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" customWidth="1"/>
     <col min="13" max="13" width="19.7109375" customWidth="1"/>
@@ -2641,82 +4763,90 @@
     <col min="15" max="15" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
+      <c r="A2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="11"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="10"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2733,38 +4863,38 @@
       <c r="D4">
         <v>0.21131011006651401</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>0.22579141854353499</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>65</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>0.10496770711016599</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="6" t="s">
+      <c r="M4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="7" t="s">
-        <v>15</v>
+      <c r="O4" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -2782,13 +4912,13 @@
       <c r="D5">
         <v>9.03441710012408E-2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>8.1164434365498903E-2</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <v>225</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>2.85129410798142E-2</v>
       </c>
       <c r="H5">
@@ -2831,13 +4961,13 @@
       <c r="D6">
         <v>4.0152215840860497E-2</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>3.6357966583805801E-2</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>833</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>3.4846519739780502E-3</v>
       </c>
       <c r="H6">
@@ -2880,13 +5010,13 @@
       <c r="D7">
         <v>1.03972924168958E-2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>9.2898249724055696E-3</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <v>3201</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>4.4158240787892902E-4</v>
       </c>
       <c r="H7">
@@ -2929,13 +5059,13 @@
       <c r="D8">
         <v>2.6218038938161199E-3</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>2.3349052975459002E-3</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <v>12545</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>5.5925175363535498E-5</v>
       </c>
       <c r="H8">
@@ -2978,13 +5108,13 @@
       <c r="D9">
         <v>6.5686232323798198E-4</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>5.8451006730774998E-4</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>49665</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>7.0645178151056104E-6</v>
       </c>
       <c r="H9">
@@ -3024,7 +5154,7 @@
         <f t="shared" si="1"/>
         <v>1.4727893623134266E-6</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>1.6430389499410799E-4</v>
       </c>
       <c r="H10">
@@ -3064,7 +5194,7 @@
         <f t="shared" si="1"/>
         <v>7.558313674915311E-7</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>1.05161277212326E-4</v>
       </c>
       <c r="H11">
@@ -3298,13 +5428,13 @@
       <c r="H20">
         <v>29100</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <v>7.3959987517828796E-5</v>
       </c>
       <c r="N20">
         <v>4268</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="4">
         <v>9.9920827748621496E-5</v>
       </c>
     </row>
@@ -3312,13 +5442,13 @@
       <c r="H21">
         <v>47845</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <v>4.3866263013078903E-5</v>
       </c>
       <c r="N21">
         <v>5013</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="4">
         <v>9.8149538065329798E-5</v>
       </c>
     </row>
@@ -3326,13 +5456,13 @@
       <c r="H22">
         <v>59076</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="4">
         <v>3.6042773322648002E-5</v>
       </c>
       <c r="N22">
         <v>5992</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="4">
         <v>9.1038587333284402E-5</v>
       </c>
     </row>
@@ -3340,13 +5470,13 @@
       <c r="H23">
         <v>60610</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="4">
         <v>3.4763551273622799E-5</v>
       </c>
       <c r="N23">
         <v>7574</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="4">
         <v>6.6040934879658698E-5</v>
       </c>
     </row>
@@ -3354,7 +5484,7 @@
       <c r="N24">
         <v>9340</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="4">
         <v>5.00821988852576E-5</v>
       </c>
     </row>
@@ -3362,7 +5492,7 @@
       <c r="N25">
         <v>11513</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25" s="4">
         <v>3.8758689535402298E-5</v>
       </c>
     </row>
@@ -3370,7 +5500,7 @@
       <c r="N26">
         <v>12936</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26" s="4">
         <v>3.64914707300563E-5</v>
       </c>
     </row>
@@ -3378,7 +5508,7 @@
       <c r="N27">
         <v>13653</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27" s="4">
         <v>3.6277454081418298E-5</v>
       </c>
     </row>
@@ -3386,7 +5516,7 @@
       <c r="N28">
         <v>14330</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28" s="4">
         <v>3.6337363165123802E-5</v>
       </c>
     </row>
@@ -3394,12 +5524,12 @@
       <c r="N29">
         <v>15030</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O29" s="4">
         <v>3.6151702730582201E-5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="L2:O2"/>
@@ -3409,6 +5539,7 @@
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Codes/MATLAB/POLYFEM/outputs/Diffusion_MMS/simple_convergence.xlsx
+++ b/Codes/MATLAB/POLYFEM/outputs/Diffusion_MMS/simple_convergence.xlsx
@@ -160,23 +160,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -396,7 +396,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Linear Err - PWLD</c:v>
+            <c:v>Uniform Linear</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -479,174 +479,10 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="5"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Linear Err - ME</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Gauss_2D - DFEM Cartesian'!$A$4:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>54600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Gauss_2D - DFEM Cartesian'!$E$4:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.17304359047503901</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0014122897273101E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3136539225116002E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.0378097107052299E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3181127808556698E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>Quadratic Err - Lagrange</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Gauss_2D - DFEM Cartesian'!$F$4:$F$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>576</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2304</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9216</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36864</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Gauss_2D - DFEM Cartesian'!$G$4:$G$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8.8370124816416498E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.1540271868120098E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.28205871046168E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0754494063251402E-4</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>5.0707939545596299E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>Quadratic Err - ME</c:v>
+            <c:v>Uniform Quadratic</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -725,16 +561,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="4"/>
           <c:tx>
-            <c:v>AMR, PWLD</c:v>
+            <c:v>AMR Linear</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -859,132 +693,17 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:idx val="8"/>
+          <c:order val="5"/>
           <c:tx>
-            <c:v>AMR, Linear Err - ME</c:v>
+            <c:v>AMR Quadratic</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Gauss_2D - DFEM Cartesian'!$L$5:$L$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1196</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2192</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2316</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2348</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2612</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3796</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4896</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Gauss_2D - DFEM Cartesian'!$M$5:$M$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.17304359047503901</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.0438425348523796E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.1877722817999196E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0045758195052803E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.5654035129574402E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.94254710843663E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.64527746853481E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.53818133745814E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.4283874068186301E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.3932603496210601E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.0970897467055001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.01574790732836E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:v>AMR, Quadratic Err - ME</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -994,15 +713,11 @@
             <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="0070C0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1126,11 +841,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="406214800"/>
-        <c:axId val="406212560"/>
+        <c:axId val="436008432"/>
+        <c:axId val="436008992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="406214800"/>
+        <c:axId val="436008432"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1153,7 +868,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1190,12 +905,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406212560"/>
+        <c:crossAx val="436008992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406212560"/>
+        <c:axId val="436008992"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1217,7 +932,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1254,7 +969,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406214800"/>
+        <c:crossAx val="436008432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1282,7 +997,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1349,38 +1064,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1401,9 +1085,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1492,15 +1176,14 @@
           <c:idx val="6"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2ns slope</c:v>
+            <c:v>2nd slope</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1588,7 +1271,7 @@
           <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Uniform err - PWLD</c:v>
+            <c:v>Uniform Linear</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1683,107 +1366,10 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Gauss_2D - CFEM'!$E$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>err - MAXENT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Gauss_2D - CFEM'!$A$4:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1089</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4225</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16641</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>66049</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Gauss_2D - CFEM'!$E$4:$E$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.22579141854353499</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.1164434365498903E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.6357966583805801E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.2898249724055696E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3349052975459002E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.8451006730774998E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>AMR err - PWLD</c:v>
+            <c:v>AMR Linear</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1944,340 +1530,11 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="5"/>
+          <c:idx val="7"/>
+          <c:order val="4"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Gauss_2D - CFEM'!$M$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ME err - linear</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Uniform Quadratic</c:v>
           </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Gauss_2D - CFEM'!$L$5:$L$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>232</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>455</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>718</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>978</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1288</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1649</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2551</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2951</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3444</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4124</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Gauss_2D - CFEM'!$M$5:$M$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.22579141854353499</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.1705344850711695E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.4573439542458005E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.1323756558099301E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.1607177487732098E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.8315109431649799E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.3252977176419699E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.20374381716468E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.2178761172632901E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.16488046157949E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0945634297100699E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.5484147532142998E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.55659070786325E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.0188567104790397E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.12399211695463E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Gauss_2D - CFEM'!$O$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ME err - quadratic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Gauss_2D - CFEM'!$N$5:$N$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>415</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>656</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>958</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1241</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1541</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1756</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2261</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2741</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3150</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3642</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4268</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5013</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5992</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7574</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9340</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11513</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Gauss_2D - CFEM'!$O$5:$O$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.10496770711016599</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8491909487048502E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0748899747270901E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.8707587286057801E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8165673700632199E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.3378754186201505E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.3606203402631399E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.3364322178835199E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.7855279625366098E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.7777658097813098E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.1450737469465501E-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.3143818589220901E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0586836077684E-4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.03233655333533E-4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.01887663157831E-4</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>9.9920827748621496E-5</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>9.8149538065329798E-5</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>9.1038587333284402E-5</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>6.6040934879658698E-5</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>5.00821988852576E-5</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>3.8758689535402298E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -2365,14 +1622,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>AMR Quadratic</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2383,15 +1641,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2399,60 +1653,144 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Gauss_2D - CFEM'!$A$4:$A$11</c:f>
+              <c:f>'Gauss_2D - CFEM'!$N$5:$N$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>289</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1089</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4225</c:v>
+                  <c:v>415</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16641</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66049</c:v>
+                  <c:v>656</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>103041</c:v>
+                  <c:v>958</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1241</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1541</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1756</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2261</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2741</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3642</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4268</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5013</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5992</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7574</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9340</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Gauss_2D - CFEM'!$E$4:$E$11</c:f>
+              <c:f>'Gauss_2D - CFEM'!$O$5:$O$25</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.22579141854353499</c:v>
+                  <c:v>0.10496770711016599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1164434365498903E-2</c:v>
+                  <c:v>2.8491909487048502E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6357966583805801E-2</c:v>
+                  <c:v>1.0748899747270901E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.2898249724055696E-3</c:v>
+                  <c:v>4.8707587286057801E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3349052975459002E-3</c:v>
+                  <c:v>1.8165673700632199E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8451006730774998E-4</c:v>
+                  <c:v>9.3378754186201505E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3606203402631399E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3364322178835199E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7855279625366098E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7777658097813098E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1450737469465501E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3143818589220901E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0586836077684E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.03233655333533E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.01887663157831E-4</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>9.9920827748621496E-5</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00E+00">
+                  <c:v>9.8149538065329798E-5</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00E+00">
+                  <c:v>9.1038587333284402E-5</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00E+00">
+                  <c:v>6.6040934879658698E-5</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00E+00">
+                  <c:v>5.00821988852576E-5</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00E+00">
+                  <c:v>3.8758689535402298E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2467,14 +1805,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="491497440"/>
-        <c:axId val="491498000"/>
+        <c:axId val="355004144"/>
+        <c:axId val="355004704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="491497440"/>
+        <c:axId val="355004144"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="100000"/>
           <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2493,7 +1832,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2530,15 +1869,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491498000"/>
+        <c:crossAx val="355004704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="491498000"/>
+        <c:axId val="355004704"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="1.0000000000000004E-6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2556,7 +1896,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2593,7 +1933,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491497440"/>
+        <c:crossAx val="355004144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2621,7 +1961,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3825,16 +3165,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>36438</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>340178</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22831</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>394606</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>680357</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4121,8 +3461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4152,29 +3492,29 @@
       <c r="O1" s="13"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -4210,14 +3550,14 @@
       <c r="K3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11" t="s">
+      <c r="M3" s="12"/>
+      <c r="N3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="11"/>
+      <c r="O3" s="12"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
@@ -4243,7 +3583,7 @@
       <c r="G4" s="9">
         <v>8.8370124816416498E-2</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="11">
         <v>128</v>
       </c>
       <c r="I4" s="9">
@@ -4292,7 +3632,7 @@
       <c r="G5" s="9">
         <v>3.1540271868120098E-2</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="11">
         <v>512</v>
       </c>
       <c r="I5" s="9">
@@ -4341,7 +3681,7 @@
       <c r="G6" s="9">
         <v>3.28205871046168E-3</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="11">
         <v>2048</v>
       </c>
       <c r="I6" s="9">
@@ -4390,7 +3730,7 @@
       <c r="G7" s="9">
         <v>4.0754494063251402E-4</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="11">
         <v>8192</v>
       </c>
       <c r="I7" s="9">
@@ -4436,13 +3776,13 @@
       <c r="F8" s="9">
         <v>36864</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="10">
         <v>5.0707939545596299E-5</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="11">
         <v>32768</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="10">
         <v>4.6512471731572002E-5</v>
       </c>
       <c r="J8" s="9">
@@ -4468,7 +3808,7 @@
       <c r="A9" s="9">
         <v>54600</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="10">
         <f t="shared" si="1"/>
         <v>4.5787545787545788E-4</v>
       </c>
@@ -4479,7 +3819,7 @@
       <c r="D9" s="9">
         <v>7.0503959327302703E-4</v>
       </c>
-      <c r="H9" s="15"/>
+      <c r="H9" s="11"/>
       <c r="J9" s="9">
         <v>1854</v>
       </c>
@@ -4511,7 +3851,7 @@
         <f t="shared" si="2"/>
         <v>3.9062499999999997E-7</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="H10" s="11"/>
       <c r="J10" s="9">
         <v>1862</v>
       </c>
@@ -4632,9 +3972,9 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
       <c r="J16" s="9">
         <v>19942</v>
       </c>
@@ -4655,9 +3995,9 @@
       </c>
     </row>
     <row r="17" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
       <c r="L17" s="9">
         <v>5020</v>
       </c>
@@ -4672,9 +4012,9 @@
       </c>
     </row>
     <row r="18" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
       <c r="L18" s="9">
         <v>5360</v>
       </c>
@@ -4689,9 +4029,9 @@
       </c>
     </row>
     <row r="19" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
       <c r="L19" s="9">
         <v>5452</v>
       </c>
@@ -4714,19 +4054,19 @@
       </c>
     </row>
     <row r="22" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="O22" s="14"/>
+      <c r="O22" s="10"/>
     </row>
     <row r="23" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="O23" s="14"/>
+      <c r="O23" s="10"/>
     </row>
     <row r="24" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="O24" s="14"/>
+      <c r="O24" s="10"/>
     </row>
     <row r="25" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="O25" s="14"/>
+      <c r="O25" s="10"/>
     </row>
     <row r="26" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="O26" s="14"/>
+      <c r="O26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4764,50 +4104,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -4831,22 +4171,22 @@
       <c r="G3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10" t="s">
+      <c r="K3" s="15"/>
+      <c r="L3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10" t="s">
+      <c r="M3" s="15"/>
+      <c r="N3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="10"/>
+      <c r="O3" s="15"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
